--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/OfunaGames/MonsterChef2/Unity/Assets/Config/Excel/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET8/Unity/Assets/Config/Excel/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993F741D-EAF1-924C-9FFF-385919F1406F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7F6ED4-6D42-8342-BC27-D3281F692BB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="600" windowWidth="43120" windowHeight="21020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -110,30 +110,6 @@
   </si>
   <si>
     <t>output</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AIConfigCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AIConfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AIConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitConfigCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitConfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitConfig.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -519,7 +495,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -544,7 +520,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -633,34 +609,6 @@
       </c>
       <c r="L3" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:13">
